--- a/我的创作/人际关系/朋友-2021_12.xlsx
+++ b/我的创作/人际关系/朋友-2021_12.xlsx
@@ -35,6 +35,8 @@
     <t xml:space="preserve">1.喜欢做饭-----玉米、红薯、鸡蛋、银耳、蒜汁;
 2.喜欢拳击;
 3.理财;
+4.石榴；
+5.看书；
 </t>
   </si>
 </sst>
